--- a/ENS_215/Data/Class_survey_2020.xlsx
+++ b/ENS_215/Data/Class_survey_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
   </bookViews>
   <sheets>
     <sheet name="Major" sheetId="3" r:id="rId1"/>
@@ -428,8 +428,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -640,7 +640,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>

--- a/ENS_215/Data/Class_survey_2020.xlsx
+++ b/ENS_215/Data/Class_survey_2020.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Major" sheetId="3" r:id="rId1"/>
-    <sheet name="Class_yr" sheetId="2" r:id="rId2"/>
-    <sheet name="Home_state" sheetId="5" r:id="rId3"/>
-    <sheet name="Heard_of" sheetId="1" r:id="rId4"/>
+    <sheet name="Heard_of" sheetId="1" r:id="rId2"/>
+    <sheet name="Class_yr" sheetId="2" r:id="rId3"/>
+    <sheet name="Home_state" sheetId="5" r:id="rId4"/>
     <sheet name="My_age" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="70">
   <si>
     <t>Topic</t>
   </si>
@@ -81,25 +81,163 @@
     <t>Age</t>
   </si>
   <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>MA</t>
-  </si>
-  <si>
-    <t>NY</t>
-  </si>
-  <si>
-    <t>CT</t>
-  </si>
-  <si>
-    <t>NJ</t>
-  </si>
-  <si>
-    <t>CA</t>
-  </si>
-  <si>
     <t>Undeclared</t>
+  </si>
+  <si>
+    <t>Machine Learning</t>
+  </si>
+  <si>
+    <t>alabama</t>
+  </si>
+  <si>
+    <t>arizona</t>
+  </si>
+  <si>
+    <t>arkansas</t>
+  </si>
+  <si>
+    <t>california</t>
+  </si>
+  <si>
+    <t>colorado</t>
+  </si>
+  <si>
+    <t>connecticut</t>
+  </si>
+  <si>
+    <t>delaware</t>
+  </si>
+  <si>
+    <t>district of columbia</t>
+  </si>
+  <si>
+    <t>florida</t>
+  </si>
+  <si>
+    <t>georgia</t>
+  </si>
+  <si>
+    <t>idaho</t>
+  </si>
+  <si>
+    <t>illinois</t>
+  </si>
+  <si>
+    <t>indiana</t>
+  </si>
+  <si>
+    <t>iowa</t>
+  </si>
+  <si>
+    <t>kansas</t>
+  </si>
+  <si>
+    <t>kentucky</t>
+  </si>
+  <si>
+    <t>louisiana</t>
+  </si>
+  <si>
+    <t>maine</t>
+  </si>
+  <si>
+    <t>maryland</t>
+  </si>
+  <si>
+    <t>massachusetts</t>
+  </si>
+  <si>
+    <t>michigan</t>
+  </si>
+  <si>
+    <t>minnesota</t>
+  </si>
+  <si>
+    <t>mississippi</t>
+  </si>
+  <si>
+    <t>missouri</t>
+  </si>
+  <si>
+    <t>montana</t>
+  </si>
+  <si>
+    <t>nebraska</t>
+  </si>
+  <si>
+    <t>nevada</t>
+  </si>
+  <si>
+    <t>new hampshire</t>
+  </si>
+  <si>
+    <t>new jersey</t>
+  </si>
+  <si>
+    <t>new mexico</t>
+  </si>
+  <si>
+    <t>new york</t>
+  </si>
+  <si>
+    <t>north carolina</t>
+  </si>
+  <si>
+    <t>north dakota</t>
+  </si>
+  <si>
+    <t>ohio</t>
+  </si>
+  <si>
+    <t>oklahoma</t>
+  </si>
+  <si>
+    <t>oregon</t>
+  </si>
+  <si>
+    <t>pennsylvania</t>
+  </si>
+  <si>
+    <t>rhode island</t>
+  </si>
+  <si>
+    <t>south carolina</t>
+  </si>
+  <si>
+    <t>south dakota</t>
+  </si>
+  <si>
+    <t>tennessee</t>
+  </si>
+  <si>
+    <t>texas</t>
+  </si>
+  <si>
+    <t>utah</t>
+  </si>
+  <si>
+    <t>vermont</t>
+  </si>
+  <si>
+    <t>virginia</t>
+  </si>
+  <si>
+    <t>washington</t>
+  </si>
+  <si>
+    <t>west virginia</t>
+  </si>
+  <si>
+    <t>wisconsin</t>
+  </si>
+  <si>
+    <t>wyoming</t>
+  </si>
+  <si>
+    <t>region</t>
+  </si>
+  <si>
+    <t>count</t>
   </si>
 </sst>
 </file>
@@ -428,7 +566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
@@ -462,7 +600,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
@@ -472,11 +610,67 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -511,71 +705,6 @@
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -585,54 +714,419 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+      <c r="A1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B1" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>19</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>20</v>
+      </c>
+      <c r="B3">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>21</v>
+      </c>
+      <c r="B4">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>23</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>31</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>43</v>
+      </c>
+      <c r="B26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>44</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>45</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>51</v>
+      </c>
+      <c r="B34">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>52</v>
+      </c>
+      <c r="B35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B36">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>54</v>
+      </c>
+      <c r="B37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>55</v>
+      </c>
+      <c r="B38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>56</v>
+      </c>
+      <c r="B39">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>57</v>
+      </c>
+      <c r="B40">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>58</v>
+      </c>
+      <c r="B41">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>59</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>60</v>
+      </c>
+      <c r="B43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>61</v>
+      </c>
+      <c r="B44">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>62</v>
+      </c>
+      <c r="B45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>64</v>
+      </c>
+      <c r="B47">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>65</v>
+      </c>
+      <c r="B48">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>66</v>
+      </c>
+      <c r="B49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>67</v>
+      </c>
+      <c r="B50">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/ENS_215/Data/Class_survey_2020.xlsx
+++ b/ENS_215/Data/Class_survey_2020.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6900" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Major" sheetId="3" r:id="rId1"/>
@@ -567,7 +567,7 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -587,20 +587,32 @@
       <c r="A2" t="s">
         <v>13</v>
       </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>14</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>15</v>
       </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>17</v>
+      </c>
+      <c r="B5">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -613,7 +625,7 @@
   <dimension ref="A1:B7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -634,30 +646,48 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>18</v>
       </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -670,7 +700,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -686,25 +718,40 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>9</v>
       </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>10</v>
       </c>
+      <c r="B4">
+        <v>7</v>
+      </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>15</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -716,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="88" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -762,7 +809,7 @@
         <v>22</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -778,7 +825,7 @@
         <v>24</v>
       </c>
       <c r="B7">
-        <v>5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -882,7 +929,7 @@
         <v>37</v>
       </c>
       <c r="B20">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -890,7 +937,7 @@
         <v>38</v>
       </c>
       <c r="B21">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -954,7 +1001,7 @@
         <v>46</v>
       </c>
       <c r="B29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
@@ -978,7 +1025,7 @@
         <v>49</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>7</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
@@ -1002,7 +1049,7 @@
         <v>52</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
